--- a/target/reports/ReportTemplate.xlsx
+++ b/target/reports/ReportTemplate.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="SuiteA" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -28,16 +26,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -54,32 +44,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -88,7 +63,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,13 +361,12 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -405,32 +379,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>